--- a/Evaluation_data_speed_signs.xlsx
+++ b/Evaluation_data_speed_signs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="129">
   <si>
     <t>Combination: Class1, Class2</t>
   </si>
@@ -68,27 +68,42 @@
     <t>30kmh</t>
   </si>
   <si>
+    <t>Precision: 0.9795918367346939</t>
+  </si>
+  <si>
+    <t>Recall: 0.9142857142857143</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9458128078817734</t>
+  </si>
+  <si>
+    <t>Class Combination: 0\2</t>
+  </si>
+  <si>
+    <t>50kmh</t>
+  </si>
+  <si>
     <t>Precision: 1.0</t>
   </si>
   <si>
+    <t>Recall: 0.9696969696969697</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9846153846153847</t>
+  </si>
+  <si>
+    <t>Class Combination: 0\3</t>
+  </si>
+  <si>
+    <t>60kmh</t>
+  </si>
+  <si>
     <t>Recall: 1.0</t>
   </si>
   <si>
     <t>F1-Score: 1.0</t>
   </si>
   <si>
-    <t>Class Combination: 0\2</t>
-  </si>
-  <si>
-    <t>50kmh</t>
-  </si>
-  <si>
-    <t>Class Combination: 0\3</t>
-  </si>
-  <si>
-    <t>60kmh</t>
-  </si>
-  <si>
     <t>Class Combination: 0\4</t>
   </si>
   <si>
@@ -116,24 +131,45 @@
     <t>Class Combination: 1\0</t>
   </si>
   <si>
+    <t>Precision: 0.8902439024390244</t>
+  </si>
+  <si>
+    <t>Recall: 0.9733333333333334</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9299363057324841</t>
+  </si>
+  <si>
     <t>Class Combination: 1\2</t>
   </si>
   <si>
-    <t>Recall: 0.75</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.8571428571428571</t>
+    <t>Recall: 0.948051948051948</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9733333333333333</t>
   </si>
   <si>
     <t>Class Combination: 1\3</t>
   </si>
   <si>
+    <t>Precision: 0.8488372093023255</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9182389937106918</t>
+  </si>
+  <si>
     <t>Class Combination: 1\4</t>
   </si>
   <si>
     <t>Class Combination: 1\5</t>
   </si>
   <si>
+    <t>Precision: 0.9864864864864865</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9798657718120806</t>
+  </si>
+  <si>
     <t>Class Combination: 1\7</t>
   </si>
   <si>
@@ -143,45 +179,99 @@
     <t>Class Combination: 2\0</t>
   </si>
   <si>
+    <t>Precision: 0.9558823529411765</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9774436090225563</t>
+  </si>
+  <si>
     <t>Class Combination: 2\1</t>
   </si>
   <si>
-    <t>Precision: 0.75</t>
+    <t>Precision: 0.9420289855072463</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9701492537313433</t>
   </si>
   <si>
     <t>Class Combination: 2\3</t>
   </si>
   <si>
-    <t>F1-Score: 0.75</t>
+    <t>Recall: 0.9285714285714286</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9420289855072465</t>
   </si>
   <si>
     <t>Class Combination: 2\4</t>
   </si>
   <si>
+    <t>Precision: 0.9701492537313433</t>
+  </si>
+  <si>
+    <t>Recall: 0.9558823529411765</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.962962962962963</t>
+  </si>
+  <si>
     <t>Class Combination: 2\5</t>
   </si>
   <si>
     <t>Class Combination: 2\7</t>
   </si>
   <si>
+    <t>F1-Score: 0.9848484848484849</t>
+  </si>
+  <si>
     <t>Class Combination: 2\8</t>
   </si>
   <si>
+    <t>Recall: 0.9848484848484849</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9923664122137404</t>
+  </si>
+  <si>
     <t>Class Combination: 3\0</t>
   </si>
   <si>
     <t>Class Combination: 3\1</t>
   </si>
   <si>
+    <t>Recall: 0.8194444444444444</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9007633587786259</t>
+  </si>
+  <si>
     <t>Class Combination: 3\2</t>
   </si>
   <si>
+    <t>Precision: 0.921875</t>
+  </si>
+  <si>
+    <t>Recall: 0.9516129032258065</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9365079365079365</t>
+  </si>
+  <si>
     <t>Class Combination: 3\4</t>
   </si>
   <si>
     <t>Class Combination: 3\5</t>
   </si>
   <si>
+    <t>Precision: 0.9833333333333333</t>
+  </si>
+  <si>
+    <t>Recall: 0.9672131147540983</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9752066115702478</t>
+  </si>
+  <si>
     <t>Class Combination: 3\7</t>
   </si>
   <si>
@@ -197,6 +287,15 @@
     <t>Class Combination: 4\2</t>
   </si>
   <si>
+    <t>Precision: 0.9454545454545454</t>
+  </si>
+  <si>
+    <t>Recall: 0.9629629629629629</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9541284403669724</t>
+  </si>
+  <si>
     <t>Class Combination: 4\3</t>
   </si>
   <si>
@@ -209,15 +308,27 @@
     <t>Class Combination: 4\8</t>
   </si>
   <si>
+    <t>Precision: 0.9629629629629629</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9811320754716981</t>
+  </si>
+  <si>
     <t>Class Combination: 5\0</t>
   </si>
   <si>
     <t>Class Combination: 5\1</t>
   </si>
   <si>
+    <t>F1-Score: 0.9774436090225564</t>
+  </si>
+  <si>
     <t>Class Combination: 5\2</t>
   </si>
   <si>
+    <t>Precision: 0.9285714285714286</t>
+  </si>
+  <si>
     <t>Class Combination: 5\3</t>
   </si>
   <si>
@@ -230,12 +341,6 @@
     <t>Class Combination: 5\8</t>
   </si>
   <si>
-    <t>Precision: 0.6666666666666666</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.8</t>
-  </si>
-  <si>
     <t>Class Combination: 7\0</t>
   </si>
   <si>
@@ -245,6 +350,12 @@
     <t>Class Combination: 7\2</t>
   </si>
   <si>
+    <t>Recall: 0.9743589743589743</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9870129870129869</t>
+  </si>
+  <si>
     <t>Class Combination: 7\3</t>
   </si>
   <si>
@@ -257,6 +368,15 @@
     <t>Class Combination: 7\8</t>
   </si>
   <si>
+    <t>Precision: 0.95</t>
+  </si>
+  <si>
+    <t>Recall: 0.9156626506024096</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.9325153374233127</t>
+  </si>
+  <si>
     <t>Class Combination: 8\0</t>
   </si>
   <si>
@@ -266,22 +386,28 @@
     <t>Class Combination: 8\2</t>
   </si>
   <si>
+    <t>F1-Score: 0.9931972789115647</t>
+  </si>
+  <si>
     <t>Class Combination: 8\3</t>
   </si>
   <si>
     <t>Class Combination: 8\4</t>
   </si>
   <si>
+    <t>F1-Score: 0.9864864864864865</t>
+  </si>
+  <si>
     <t>Class Combination: 8\5</t>
   </si>
   <si>
-    <t>Recall: 0.5</t>
-  </si>
-  <si>
-    <t>F1-Score: 0.6666666666666666</t>
-  </si>
-  <si>
     <t>Class Combination: 8\7</t>
+  </si>
+  <si>
+    <t>Precision: 0.9125</t>
+  </si>
+  <si>
+    <t>F1-Score: 0.929936305732484</t>
   </si>
 </sst>
 </file>
@@ -733,49 +859,49 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -783,25 +909,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3">
+        <v>96</v>
+      </c>
+      <c r="H2" s="4">
         <v>3</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="M2" s="4">
         <v>0</v>
@@ -810,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="Q2" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="R2" s="4">
         <v>0</v>
@@ -819,7 +945,7 @@
         <v>13</v>
       </c>
       <c r="V2" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="W2" s="4">
         <v>0</v>
@@ -828,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="AA2" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="AB2" s="4">
         <v>0</v>
@@ -837,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="AF2" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="AG2" s="4">
         <v>0</v>
@@ -848,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5">
         <v>1.5</v>
@@ -863,67 +989,67 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I3" s="5">
         <v>2.5</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4">
         <v>0</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="N3" s="5">
         <v>3</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="S3" s="5">
         <v>3.5</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
       </c>
       <c r="W3" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="X3" s="5">
         <v>4</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="4">
         <v>0</v>
       </c>
       <c r="AB3" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AC3" s="5">
         <v>5</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="4">
         <v>0</v>
       </c>
       <c r="AG3" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AH3" s="5">
         <v>6</v>
@@ -931,25 +1057,25 @@
     </row>
     <row r="4" spans="1:34">
       <c r="D4" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="N4" s="6">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="S4" s="6">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="X4" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AC4" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AH4" s="6">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -963,58 +1089,58 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1129,7 +1255,7 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -1138,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>14</v>
@@ -1147,49 +1273,49 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -1197,25 +1323,25 @@
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="H2" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="M2" s="4">
         <v>0</v>
@@ -1224,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="Q2" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="R2" s="4">
         <v>0</v>
@@ -1233,16 +1359,16 @@
         <v>14</v>
       </c>
       <c r="V2" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="W2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AA2" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="4">
         <v>0</v>
@@ -1251,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="AF2" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="AG2" s="4">
         <v>0</v>
@@ -1262,10 +1388,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5">
         <v>0.6666666666666666</v>
@@ -1277,67 +1403,67 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I3" s="5">
         <v>1.666666666666667</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="N3" s="5">
         <v>2</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="S3" s="5">
         <v>2.333333333333333</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="X3" s="5">
         <v>2.666666666666667</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="4">
         <v>0</v>
       </c>
       <c r="AB3" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AC3" s="5">
         <v>3.333333333333333</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="4">
         <v>0</v>
       </c>
       <c r="AG3" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AH3" s="5">
         <v>4</v>
@@ -1345,90 +1471,90 @@
     </row>
     <row r="4" spans="1:34">
       <c r="D4" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N4" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S4" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="X4" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC4" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AH4" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1543,7 +1669,7 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -1552,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -1561,49 +1687,49 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -1611,7 +1737,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -1620,7 +1746,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -1629,34 +1755,34 @@
         <v>19</v>
       </c>
       <c r="L2" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="M2" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Q2" s="3">
+        <v>65</v>
+      </c>
+      <c r="R2" s="4">
         <v>3</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="V2" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="W2" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AA2" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="4">
         <v>0</v>
@@ -1665,10 +1791,10 @@
         <v>19</v>
       </c>
       <c r="AF2" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1676,10 +1802,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5">
         <v>0.4</v>
@@ -1688,70 +1814,70 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5">
         <v>0.6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="N3" s="5">
         <v>1.2</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="S3" s="5">
         <v>1.4</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="X3" s="5">
         <v>1.6</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AC3" s="5">
         <v>2</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="4">
         <v>0</v>
       </c>
       <c r="AG3" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AH3" s="5">
         <v>2.4</v>
@@ -1759,90 +1885,90 @@
     </row>
     <row r="4" spans="1:34">
       <c r="D4" s="6">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I4" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N4" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S4" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="X4" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AC4" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AH4" s="6">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1957,129 +2083,129 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3">
+        <v>59</v>
+      </c>
+      <c r="H2" s="4">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3">
+        <v>59</v>
+      </c>
+      <c r="M2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4">
         <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V2" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="W2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA2" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="4">
         <v>0</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF2" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="AG2" s="4">
         <v>0</v>
@@ -2093,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5">
         <v>0.3333333333333333</v>
@@ -2105,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5">
         <v>0.5</v>
@@ -2114,58 +2240,58 @@
         <v>19</v>
       </c>
       <c r="L3" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N3" s="5">
         <v>0.8333333333333334</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="S3" s="5">
         <v>1.166666666666667</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="X3" s="5">
         <v>1.333333333333333</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="4">
         <v>0</v>
       </c>
       <c r="AB3" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AC3" s="5">
         <v>1.666666666666667</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="4">
         <v>0</v>
       </c>
       <c r="AG3" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AH3" s="5">
         <v>2</v>
@@ -2173,90 +2299,90 @@
     </row>
     <row r="4" spans="1:34">
       <c r="D4" s="6">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N4" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S4" s="6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="X4" s="6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AC4" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AH4" s="6">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -2371,129 +2497,129 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L2" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R2" s="4">
         <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V2" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="W2" s="4">
         <v>0</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AA2" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="4">
         <v>0</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF2" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="AG2" s="4">
         <v>0</v>
@@ -2507,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5">
         <v>0.2857142857142857</v>
@@ -2519,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5">
         <v>0.4285714285714285</v>
@@ -2528,58 +2654,58 @@
         <v>19</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N3" s="5">
         <v>0.7142857142857143</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S3" s="5">
         <v>0.8571428571428571</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
       </c>
       <c r="W3" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="X3" s="5">
         <v>1.142857142857143</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="4">
         <v>0</v>
       </c>
       <c r="AB3" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AC3" s="5">
         <v>1.428571428571429</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AH3" s="5">
         <v>1.714285714285714</v>
@@ -2587,90 +2713,90 @@
     </row>
     <row r="4" spans="1:34">
       <c r="D4" s="6">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I4" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N4" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S4" s="6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="X4" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AC4" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AH4" s="6">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -2785,129 +2911,129 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L2" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="R2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V2" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="W2" s="4">
         <v>0</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA2" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="4">
         <v>0</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="AG2" s="4">
         <v>0</v>
@@ -2921,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5">
         <v>0.25</v>
@@ -2930,10 +3056,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5">
         <v>0.375</v>
@@ -2942,58 +3068,58 @@
         <v>19</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N3" s="5">
         <v>0.625</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S3" s="5">
         <v>0.75</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
       </c>
       <c r="W3" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="X3" s="5">
         <v>0.875</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="4">
         <v>0</v>
       </c>
       <c r="AB3" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AC3" s="5">
         <v>1.25</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG3" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AH3" s="5">
         <v>1.5</v>
@@ -3001,90 +3127,90 @@
     </row>
     <row r="4" spans="1:34">
       <c r="D4" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N4" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S4" s="6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X4" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AC4" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AH4" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -3199,132 +3325,132 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L2" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="R2" s="4">
         <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="V2" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="W2" s="4">
         <v>0</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="4">
         <v>0</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF2" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -3335,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5">
         <v>0.2</v>
@@ -3347,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5">
         <v>0.3</v>
@@ -3359,55 +3485,55 @@
         <v>0</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N3" s="5">
         <v>0.5</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S3" s="5">
         <v>0.6</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
       </c>
       <c r="W3" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="X3" s="5">
         <v>0.7</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="4">
         <v>0</v>
       </c>
       <c r="AB3" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="AC3" s="5">
         <v>0.8</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG3" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AH3" s="5">
         <v>1.2</v>
@@ -3415,90 +3541,90 @@
     </row>
     <row r="4" spans="1:34">
       <c r="D4" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I4" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N4" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="S4" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="X4" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AC4" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AH4" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -3613,132 +3739,132 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3">
+        <v>73</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="3">
+        <v>73</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>73</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="3">
+        <v>73</v>
+      </c>
+      <c r="W2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>2</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="3">
-        <v>2</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF2" s="3">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AG2" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -3749,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5">
         <v>0.1666666666666667</v>
@@ -3761,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5">
         <v>0.25</v>
@@ -3770,58 +3896,58 @@
         <v>19</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N3" s="5">
         <v>0.4166666666666667</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S3" s="5">
         <v>0.5</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
       </c>
       <c r="W3" s="3">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="X3" s="5">
         <v>0.5833333333333334</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="4">
         <v>0</v>
       </c>
       <c r="AB3" s="3">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="AC3" s="5">
         <v>0.6666666666666666</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF3" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG3" s="3">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AH3" s="5">
         <v>0.8333333333333334</v>
@@ -3829,90 +3955,90 @@
     </row>
     <row r="4" spans="1:34">
       <c r="D4" s="6">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I4" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N4" s="6">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="S4" s="6">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="X4" s="6">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AC4" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH4" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:34">
